--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Jag1-Cd46.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Jag1-Cd46.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H2">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I2">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J2">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.931427666666667</v>
+        <v>1.986769333333333</v>
       </c>
       <c r="N2">
-        <v>11.794283</v>
+        <v>5.960307999999999</v>
       </c>
       <c r="O2">
-        <v>0.3669735923346364</v>
+        <v>0.4188172894723593</v>
       </c>
       <c r="P2">
-        <v>0.4268080945104293</v>
+        <v>0.4376286247783243</v>
       </c>
       <c r="Q2">
-        <v>57.10105925519755</v>
+        <v>24.93982272543111</v>
       </c>
       <c r="R2">
-        <v>513.909533296778</v>
+        <v>224.45840452888</v>
       </c>
       <c r="S2">
-        <v>0.07682250013044048</v>
+        <v>0.1408777589916843</v>
       </c>
       <c r="T2">
-        <v>0.1072977611207427</v>
+        <v>0.1571527085122719</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H3">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I3">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J3">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.92893</v>
       </c>
       <c r="O3">
-        <v>0.122246817049525</v>
+        <v>0.2760769767479527</v>
       </c>
       <c r="P3">
-        <v>0.1421789799994507</v>
+        <v>0.2884770774849725</v>
       </c>
       <c r="Q3">
-        <v>19.02159416893112</v>
+        <v>16.43989164664444</v>
       </c>
       <c r="R3">
-        <v>171.19434752038</v>
+        <v>147.9590248198</v>
       </c>
       <c r="S3">
-        <v>0.02559123139893214</v>
+        <v>0.09286413615457426</v>
       </c>
       <c r="T3">
-        <v>0.03574319800534884</v>
+        <v>0.1035922960785115</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H4">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I4">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J4">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.367377</v>
+        <v>0.3499836666666667</v>
       </c>
       <c r="N4">
-        <v>1.102131</v>
+        <v>1.049951</v>
       </c>
       <c r="O4">
-        <v>0.03429228994194604</v>
+        <v>0.07377766919071853</v>
       </c>
       <c r="P4">
-        <v>0.039883597164056</v>
+        <v>0.07709142081493547</v>
       </c>
       <c r="Q4">
-        <v>5.335877351594</v>
+        <v>4.393328635095556</v>
       </c>
       <c r="R4">
-        <v>48.022896164346</v>
+        <v>39.53995771586001</v>
       </c>
       <c r="S4">
-        <v>0.00717877118017793</v>
+        <v>0.02481662758553382</v>
       </c>
       <c r="T4">
-        <v>0.01002656869957803</v>
+        <v>0.02768357666334835</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H5">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I5">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J5">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.5056325</v>
+        <v>0.6117275</v>
       </c>
       <c r="N5">
-        <v>9.011265</v>
+        <v>1.223455</v>
       </c>
       <c r="O5">
-        <v>0.4205719358094143</v>
+        <v>0.1289541010862372</v>
       </c>
       <c r="P5">
-        <v>0.3260970458126639</v>
+        <v>0.08983074853315715</v>
       </c>
       <c r="Q5">
-        <v>65.440956868165</v>
+        <v>7.678986760216667</v>
       </c>
       <c r="R5">
-        <v>392.64574120899</v>
+        <v>46.07392056130001</v>
       </c>
       <c r="S5">
-        <v>0.08804281362053977</v>
+        <v>0.04337634866197463</v>
       </c>
       <c r="T5">
-        <v>0.08197942675834635</v>
+        <v>0.03225827708784205</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H6">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I6">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J6">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.5990273333333334</v>
+        <v>0.4856376666666667</v>
       </c>
       <c r="N6">
-        <v>1.797082</v>
+        <v>1.456913</v>
       </c>
       <c r="O6">
-        <v>0.05591536486447825</v>
+        <v>0.1023739635027323</v>
       </c>
       <c r="P6">
-        <v>0.06503228251340003</v>
+        <v>0.1069721283886106</v>
       </c>
       <c r="Q6">
-        <v>8.700425940979112</v>
+        <v>6.096186966575557</v>
       </c>
       <c r="R6">
-        <v>78.303833468812</v>
+        <v>54.86568269918001</v>
       </c>
       <c r="S6">
-        <v>0.01170536031562175</v>
+        <v>0.03443557589403966</v>
       </c>
       <c r="T6">
-        <v>0.01634884249855515</v>
+        <v>0.038413757144218</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>13.149005</v>
       </c>
       <c r="H7">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I7">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J7">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.931427666666667</v>
+        <v>1.986769333333333</v>
       </c>
       <c r="N7">
-        <v>11.794283</v>
+        <v>5.960307999999999</v>
       </c>
       <c r="O7">
-        <v>0.3669735923346364</v>
+        <v>0.4188172894723593</v>
       </c>
       <c r="P7">
-        <v>0.4268080945104293</v>
+        <v>0.4376286247783243</v>
       </c>
       <c r="Q7">
-        <v>51.69436204613832</v>
+        <v>26.12403989784666</v>
       </c>
       <c r="R7">
-        <v>465.2492584152449</v>
+        <v>235.11635908062</v>
       </c>
       <c r="S7">
-        <v>0.06954844948294048</v>
+        <v>0.1475670551926254</v>
       </c>
       <c r="T7">
-        <v>0.09713811586797939</v>
+        <v>0.164614787860658</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>13.149005</v>
       </c>
       <c r="H8">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I8">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J8">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.92893</v>
       </c>
       <c r="O8">
-        <v>0.122246817049525</v>
+        <v>0.2760769767479527</v>
       </c>
       <c r="P8">
-        <v>0.1421789799994507</v>
+        <v>0.2884770774849725</v>
       </c>
       <c r="Q8">
         <v>17.22050673821667</v>
@@ -948,10 +948,10 @@
         <v>154.98456064395</v>
       </c>
       <c r="S8">
-        <v>0.02316808827013981</v>
+        <v>0.09727360233027586</v>
       </c>
       <c r="T8">
-        <v>0.03235880108839006</v>
+        <v>0.1085111672868877</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>13.149005</v>
       </c>
       <c r="H9">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I9">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J9">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.367377</v>
+        <v>0.3499836666666667</v>
       </c>
       <c r="N9">
-        <v>1.102131</v>
+        <v>1.049951</v>
       </c>
       <c r="O9">
-        <v>0.03429228994194604</v>
+        <v>0.07377766919071853</v>
       </c>
       <c r="P9">
-        <v>0.039883597164056</v>
+        <v>0.07709142081493547</v>
       </c>
       <c r="Q9">
-        <v>4.830642009884999</v>
+        <v>4.601936982918334</v>
       </c>
       <c r="R9">
-        <v>43.47577808896499</v>
+        <v>41.417432846265</v>
       </c>
       <c r="S9">
-        <v>0.006499038744201973</v>
+        <v>0.02599499508524598</v>
       </c>
       <c r="T9">
-        <v>0.009077188395402417</v>
+        <v>0.02899807545668542</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>13.149005</v>
       </c>
       <c r="H10">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I10">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J10">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.5056325</v>
+        <v>0.6117275</v>
       </c>
       <c r="N10">
-        <v>9.011265</v>
+        <v>1.223455</v>
       </c>
       <c r="O10">
-        <v>0.4205719358094143</v>
+        <v>0.1289541010862372</v>
       </c>
       <c r="P10">
-        <v>0.3260970458126639</v>
+        <v>0.08983074853315715</v>
       </c>
       <c r="Q10">
-        <v>59.24458427066249</v>
+        <v>8.0436079561375</v>
       </c>
       <c r="R10">
-        <v>355.4675056239749</v>
+        <v>48.261647736825</v>
       </c>
       <c r="S10">
-        <v>0.07970635119954596</v>
+        <v>0.04543598707752022</v>
       </c>
       <c r="T10">
-        <v>0.07421708497982177</v>
+        <v>0.03378999630255036</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,43 +1101,43 @@
         <v>13.149005</v>
       </c>
       <c r="H11">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I11">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J11">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.5990273333333334</v>
+        <v>0.4856376666666667</v>
       </c>
       <c r="N11">
-        <v>1.797082</v>
+        <v>1.456913</v>
       </c>
       <c r="O11">
-        <v>0.05591536486447825</v>
+        <v>0.1023739635027323</v>
       </c>
       <c r="P11">
-        <v>0.06503228251340003</v>
+        <v>0.1069721283886106</v>
       </c>
       <c r="Q11">
-        <v>7.876613401136665</v>
+        <v>6.385652107188334</v>
       </c>
       <c r="R11">
-        <v>70.88952061022999</v>
+        <v>57.47086896469501</v>
       </c>
       <c r="S11">
-        <v>0.01059702117489479</v>
+        <v>0.03607067975041785</v>
       </c>
       <c r="T11">
-        <v>0.01480082846411775</v>
+        <v>0.04023775691229965</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H12">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I12">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J12">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.931427666666667</v>
+        <v>1.986769333333333</v>
       </c>
       <c r="N12">
-        <v>11.794283</v>
+        <v>5.960307999999999</v>
       </c>
       <c r="O12">
-        <v>0.3669735923346364</v>
+        <v>0.4188172894723593</v>
       </c>
       <c r="P12">
-        <v>0.4268080945104293</v>
+        <v>0.4376286247783243</v>
       </c>
       <c r="Q12">
-        <v>13.01221439209144</v>
+        <v>4.235998842677333</v>
       </c>
       <c r="R12">
-        <v>117.109929528823</v>
+        <v>38.12398958409599</v>
       </c>
       <c r="S12">
-        <v>0.01750634497630224</v>
+        <v>0.02392791763668942</v>
       </c>
       <c r="T12">
-        <v>0.02445106079827113</v>
+        <v>0.02669219820487256</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H13">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I13">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J13">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.92893</v>
       </c>
       <c r="O13">
-        <v>0.122246817049525</v>
+        <v>0.2760769767479527</v>
       </c>
       <c r="P13">
-        <v>0.1421789799994507</v>
+        <v>0.2884770774849725</v>
       </c>
       <c r="Q13">
-        <v>4.334649210258889</v>
+        <v>2.792295789573333</v>
       </c>
       <c r="R13">
-        <v>39.01184289233</v>
+        <v>25.13066210616</v>
       </c>
       <c r="S13">
-        <v>0.005831741019589167</v>
+        <v>0.01577286164411607</v>
       </c>
       <c r="T13">
-        <v>0.008145175616199086</v>
+        <v>0.01759502668202213</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H14">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I14">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J14">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.367377</v>
+        <v>0.3499836666666667</v>
       </c>
       <c r="N14">
-        <v>1.102131</v>
+        <v>1.049951</v>
       </c>
       <c r="O14">
-        <v>0.03429228994194604</v>
+        <v>0.07377766919071853</v>
       </c>
       <c r="P14">
-        <v>0.039883597164056</v>
+        <v>0.07709142081493547</v>
       </c>
       <c r="Q14">
-        <v>1.215942067879</v>
+        <v>0.7462015756346667</v>
       </c>
       <c r="R14">
-        <v>10.943478610911</v>
+        <v>6.715814180712001</v>
       </c>
       <c r="S14">
-        <v>0.001635901520683959</v>
+        <v>0.004215074296589992</v>
       </c>
       <c r="T14">
-        <v>0.00228485886667798</v>
+        <v>0.004702022143386576</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H15">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I15">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J15">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.5056325</v>
+        <v>0.6117275</v>
       </c>
       <c r="N15">
-        <v>9.011265</v>
+        <v>1.223455</v>
       </c>
       <c r="O15">
-        <v>0.4205719358094143</v>
+        <v>0.1289541010862372</v>
       </c>
       <c r="P15">
-        <v>0.3260970458126639</v>
+        <v>0.08983074853315715</v>
       </c>
       <c r="Q15">
-        <v>14.9127139128275</v>
+        <v>1.30426664966</v>
       </c>
       <c r="R15">
-        <v>89.47628347696499</v>
+        <v>7.82559989796</v>
       </c>
       <c r="S15">
-        <v>0.02006323492867836</v>
+        <v>0.007367420560865948</v>
       </c>
       <c r="T15">
-        <v>0.01868150767489068</v>
+        <v>0.005479029498935687</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H16">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I16">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J16">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.5990273333333334</v>
+        <v>0.4856376666666667</v>
       </c>
       <c r="N16">
-        <v>1.797082</v>
+        <v>1.456913</v>
       </c>
       <c r="O16">
-        <v>0.05591536486447825</v>
+        <v>0.1023739635027323</v>
       </c>
       <c r="P16">
-        <v>0.06503228251340003</v>
+        <v>0.1069721283886106</v>
       </c>
       <c r="Q16">
-        <v>1.982656874026889</v>
+        <v>1.035430011650667</v>
       </c>
       <c r="R16">
-        <v>17.843911866242</v>
+        <v>9.318870104856002</v>
       </c>
       <c r="S16">
-        <v>0.00266742263541609</v>
+        <v>0.005848841077981557</v>
       </c>
       <c r="T16">
-        <v>0.003725581389006748</v>
+        <v>0.006524530370453256</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H17">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I17">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J17">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.931427666666667</v>
+        <v>1.986769333333333</v>
       </c>
       <c r="N17">
-        <v>11.794283</v>
+        <v>5.960307999999999</v>
       </c>
       <c r="O17">
-        <v>0.3669735923346364</v>
+        <v>0.4188172894723593</v>
       </c>
       <c r="P17">
-        <v>0.4268080945104293</v>
+        <v>0.4376286247783243</v>
       </c>
       <c r="Q17">
-        <v>136.8902964966542</v>
+        <v>14.07937200744267</v>
       </c>
       <c r="R17">
-        <v>821.341778979925</v>
+        <v>84.476232044656</v>
       </c>
       <c r="S17">
-        <v>0.1841691722997769</v>
+        <v>0.07953025160825346</v>
       </c>
       <c r="T17">
-        <v>0.1714856960020251</v>
+        <v>0.05914534008469598</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H18">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I18">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J18">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.92893</v>
       </c>
       <c r="O18">
-        <v>0.122246817049525</v>
+        <v>0.2760769767479527</v>
       </c>
       <c r="P18">
-        <v>0.1421789799994507</v>
+        <v>0.2884770774849725</v>
       </c>
       <c r="Q18">
-        <v>45.60110967445834</v>
+        <v>9.280873918126666</v>
       </c>
       <c r="R18">
-        <v>273.60665804675</v>
+        <v>55.68524350876</v>
       </c>
       <c r="S18">
-        <v>0.06135072272928865</v>
+        <v>0.05242494036402402</v>
       </c>
       <c r="T18">
-        <v>0.05712558326718431</v>
+        <v>0.03898756591420521</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H19">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I19">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J19">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.367377</v>
+        <v>0.3499836666666667</v>
       </c>
       <c r="N19">
-        <v>1.102131</v>
+        <v>1.049951</v>
       </c>
       <c r="O19">
-        <v>0.03429228994194604</v>
+        <v>0.07377766919071853</v>
       </c>
       <c r="P19">
-        <v>0.039883597164056</v>
+        <v>0.07709142081493547</v>
       </c>
       <c r="Q19">
-        <v>12.7918788592875</v>
+        <v>2.480182352755333</v>
       </c>
       <c r="R19">
-        <v>76.751273155725</v>
+        <v>14.881094116532</v>
       </c>
       <c r="S19">
-        <v>0.01720991043168334</v>
+        <v>0.01400982419135678</v>
       </c>
       <c r="T19">
-        <v>0.01602468769152036</v>
+        <v>0.01041887583112595</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H20">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I20">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J20">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.5056325</v>
+        <v>0.6117275</v>
       </c>
       <c r="N20">
-        <v>9.011265</v>
+        <v>1.223455</v>
       </c>
       <c r="O20">
-        <v>0.4205719358094143</v>
+        <v>0.1289541010862372</v>
       </c>
       <c r="P20">
-        <v>0.3260970458126639</v>
+        <v>0.08983074853315715</v>
       </c>
       <c r="Q20">
-        <v>156.8838145133438</v>
+        <v>4.335047302765</v>
       </c>
       <c r="R20">
-        <v>627.5352580533751</v>
+        <v>17.34018921106</v>
       </c>
       <c r="S20">
-        <v>0.2110680085119141</v>
+        <v>0.02448741339743913</v>
       </c>
       <c r="T20">
-        <v>0.1310213643664213</v>
+        <v>0.01214059106564992</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H21">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I21">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J21">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.5990273333333334</v>
+        <v>0.4856376666666667</v>
       </c>
       <c r="N21">
-        <v>1.797082</v>
+        <v>1.456913</v>
       </c>
       <c r="O21">
-        <v>0.05591536486447825</v>
+        <v>0.1023739635027323</v>
       </c>
       <c r="P21">
-        <v>0.06503228251340003</v>
+        <v>0.1069721283886106</v>
       </c>
       <c r="Q21">
-        <v>20.85782474515834</v>
+        <v>3.441503376919334</v>
       </c>
       <c r="R21">
-        <v>125.14694847095</v>
+        <v>20.649020261516</v>
       </c>
       <c r="S21">
-        <v>0.02806165533715171</v>
+        <v>0.01944004528982989</v>
       </c>
       <c r="T21">
-        <v>0.02612908792698218</v>
+        <v>0.014457241951056</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.57841</v>
+        <v>2.398207</v>
       </c>
       <c r="H22">
-        <v>10.73523</v>
+        <v>7.194621</v>
       </c>
       <c r="I22">
-        <v>0.05157626009208017</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J22">
-        <v>0.06193758052253855</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.931427666666667</v>
+        <v>1.986769333333333</v>
       </c>
       <c r="N22">
-        <v>11.794283</v>
+        <v>5.960307999999999</v>
       </c>
       <c r="O22">
-        <v>0.3669735923346364</v>
+        <v>0.4188172894723593</v>
       </c>
       <c r="P22">
-        <v>0.4268080945104293</v>
+        <v>0.4376286247783243</v>
       </c>
       <c r="Q22">
-        <v>14.06826007667667</v>
+        <v>4.764684122585332</v>
       </c>
       <c r="R22">
-        <v>126.61434069009</v>
+        <v>42.88215710326799</v>
       </c>
       <c r="S22">
-        <v>0.0189271254451762</v>
+        <v>0.02691430604310673</v>
       </c>
       <c r="T22">
-        <v>0.02643546072141096</v>
+        <v>0.03002359011582588</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.57841</v>
+        <v>2.398207</v>
       </c>
       <c r="H23">
-        <v>10.73523</v>
+        <v>7.194621</v>
       </c>
       <c r="I23">
-        <v>0.05157626009208017</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J23">
-        <v>0.06193758052253855</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.92893</v>
       </c>
       <c r="O23">
-        <v>0.122246817049525</v>
+        <v>0.2760769767479527</v>
       </c>
       <c r="P23">
-        <v>0.1421789799994507</v>
+        <v>0.2884770774849725</v>
       </c>
       <c r="Q23">
-        <v>4.686440800433334</v>
+        <v>3.140795809503333</v>
       </c>
       <c r="R23">
-        <v>42.17796720390001</v>
+        <v>28.26716228553</v>
       </c>
       <c r="S23">
-        <v>0.006305033631575243</v>
+        <v>0.01774143625496255</v>
       </c>
       <c r="T23">
-        <v>0.008806222022328374</v>
+        <v>0.01979102152334607</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.57841</v>
+        <v>2.398207</v>
       </c>
       <c r="H24">
-        <v>10.73523</v>
+        <v>7.194621</v>
       </c>
       <c r="I24">
-        <v>0.05157626009208017</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J24">
-        <v>0.06193758052253855</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.367377</v>
+        <v>0.3499836666666667</v>
       </c>
       <c r="N24">
-        <v>1.102131</v>
+        <v>1.049951</v>
       </c>
       <c r="O24">
-        <v>0.03429228994194604</v>
+        <v>0.07377766919071853</v>
       </c>
       <c r="P24">
-        <v>0.039883597164056</v>
+        <v>0.07709142081493547</v>
       </c>
       <c r="Q24">
-        <v>1.31462553057</v>
+        <v>0.8393332792856666</v>
       </c>
       <c r="R24">
-        <v>11.83162977513</v>
+        <v>7.553999513571</v>
       </c>
       <c r="S24">
-        <v>0.001768668065198834</v>
+        <v>0.004741148031991963</v>
       </c>
       <c r="T24">
-        <v>0.002470293510877209</v>
+        <v>0.005288870720389197</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.57841</v>
+        <v>2.398207</v>
       </c>
       <c r="H25">
-        <v>10.73523</v>
+        <v>7.194621</v>
       </c>
       <c r="I25">
-        <v>0.05157626009208017</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J25">
-        <v>0.06193758052253855</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.5056325</v>
+        <v>0.6117275</v>
       </c>
       <c r="N25">
-        <v>9.011265</v>
+        <v>1.223455</v>
       </c>
       <c r="O25">
-        <v>0.4205719358094143</v>
+        <v>0.1289541010862372</v>
       </c>
       <c r="P25">
-        <v>0.3260970458126639</v>
+        <v>0.08983074853315715</v>
       </c>
       <c r="Q25">
-        <v>16.123000394325</v>
+        <v>1.4670491725925</v>
       </c>
       <c r="R25">
-        <v>96.73800236595001</v>
+        <v>8.802295035555</v>
       </c>
       <c r="S25">
-        <v>0.021691527548736</v>
+        <v>0.008286931388437262</v>
       </c>
       <c r="T25">
-        <v>0.02019766203318381</v>
+        <v>0.006162854578179139</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.57841</v>
+        <v>2.398207</v>
       </c>
       <c r="H26">
-        <v>10.73523</v>
+        <v>7.194621</v>
       </c>
       <c r="I26">
-        <v>0.05157626009208017</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J26">
-        <v>0.06193758052253855</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.5990273333333334</v>
+        <v>0.4856376666666667</v>
       </c>
       <c r="N26">
-        <v>1.797082</v>
+        <v>1.456913</v>
       </c>
       <c r="O26">
-        <v>0.05591536486447825</v>
+        <v>0.1023739635027323</v>
       </c>
       <c r="P26">
-        <v>0.06503228251340003</v>
+        <v>0.1069721283886106</v>
       </c>
       <c r="Q26">
-        <v>2.143565399873334</v>
+        <v>1.164659651663667</v>
       </c>
       <c r="R26">
-        <v>19.29208859886</v>
+        <v>10.481936864973</v>
       </c>
       <c r="S26">
-        <v>0.002883905401393891</v>
+        <v>0.006578821490463371</v>
       </c>
       <c r="T26">
-        <v>0.004027942234738189</v>
+        <v>0.00733884201058372</v>
       </c>
     </row>
   </sheetData>
